--- a/shipClassTests/testResults/parallel_sys_test.xlsx
+++ b/shipClassTests/testResults/parallel_sys_test.xlsx
@@ -484,7 +484,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -584,10 +584,10 @@
         <v>3</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3" s="4">
         <v>3</v>
@@ -599,10 +599,10 @@
         <v>3</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K3" s="4">
         <v>3</v>
@@ -623,10 +623,10 @@
         <v>3</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4" s="4">
         <v>3</v>
@@ -638,10 +638,10 @@
         <v>3</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K4" s="4">
         <v>3</v>
@@ -656,16 +656,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5" s="4">
         <v>3</v>
@@ -677,10 +677,10 @@
         <v>3</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K5" s="4">
         <v>3</v>
@@ -695,16 +695,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6" s="4">
         <v>3</v>
@@ -716,10 +716,10 @@
         <v>3</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K6" s="4">
         <v>3</v>
@@ -734,16 +734,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7" s="4">
         <v>3</v>
@@ -755,10 +755,10 @@
         <v>3</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K7" s="4">
         <v>3</v>
@@ -773,16 +773,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8" s="4">
         <v>3</v>
@@ -794,10 +794,10 @@
         <v>3</v>
       </c>
       <c r="I8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K8" s="4">
         <v>3</v>
@@ -812,16 +812,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F9" s="4">
         <v>3</v>
@@ -833,10 +833,10 @@
         <v>3</v>
       </c>
       <c r="I9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K9" s="4">
         <v>3</v>
@@ -851,16 +851,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F10" s="4">
         <v>3</v>
@@ -872,10 +872,10 @@
         <v>3</v>
       </c>
       <c r="I10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K10" s="4">
         <v>3</v>
@@ -890,16 +890,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F11" s="4">
         <v>3</v>
@@ -911,10 +911,10 @@
         <v>3</v>
       </c>
       <c r="I11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K11" s="4">
         <v>3</v>
@@ -929,16 +929,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F12" s="4">
         <v>3</v>
@@ -950,10 +950,10 @@
         <v>3</v>
       </c>
       <c r="I12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K12" s="4">
         <v>3</v>
@@ -968,16 +968,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F13" s="4">
         <v>3</v>
@@ -989,10 +989,10 @@
         <v>3</v>
       </c>
       <c r="I13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K13" s="4">
         <v>3</v>
@@ -1007,16 +1007,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F14" s="4">
         <v>3</v>
@@ -1028,10 +1028,10 @@
         <v>3</v>
       </c>
       <c r="I14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K14" s="4">
         <v>3</v>
@@ -1046,16 +1046,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F15" s="4">
         <v>3</v>
@@ -1067,10 +1067,10 @@
         <v>3</v>
       </c>
       <c r="I15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K15" s="4">
         <v>3</v>
@@ -1085,16 +1085,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F16" s="4">
         <v>3</v>
@@ -1106,10 +1106,10 @@
         <v>3</v>
       </c>
       <c r="I16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K16" s="4">
         <v>3</v>
@@ -1119,48 +1119,321 @@
         <v>0</v>
       </c>
     </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="3">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17" s="4">
+        <v>3</v>
+      </c>
+      <c r="G17">
+        <v>3</v>
+      </c>
+      <c r="H17">
+        <v>3</v>
+      </c>
+      <c r="I17">
+        <v>3</v>
+      </c>
+      <c r="J17">
+        <v>2</v>
+      </c>
+      <c r="K17" s="4">
+        <v>3</v>
+      </c>
+      <c r="L17" s="3">
+        <f>IF(B17 = G17, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="3">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18" s="4">
+        <v>3</v>
+      </c>
+      <c r="G18">
+        <v>3</v>
+      </c>
+      <c r="H18">
+        <v>3</v>
+      </c>
+      <c r="I18">
+        <v>3</v>
+      </c>
+      <c r="J18">
+        <v>2</v>
+      </c>
+      <c r="K18" s="4">
+        <v>3</v>
+      </c>
+      <c r="L18" s="3">
+        <f>IF(B18 = G18, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="3">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19" s="4">
+        <v>3</v>
+      </c>
+      <c r="G19">
+        <v>3</v>
+      </c>
+      <c r="H19">
+        <v>3</v>
+      </c>
+      <c r="I19">
+        <v>3</v>
+      </c>
+      <c r="J19">
+        <v>2</v>
+      </c>
+      <c r="K19" s="4">
+        <v>3</v>
+      </c>
+      <c r="L19" s="3">
+        <f>IF(B19 = G19, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="3">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20" s="4">
+        <v>3</v>
+      </c>
+      <c r="G20">
+        <v>3</v>
+      </c>
+      <c r="H20">
+        <v>3</v>
+      </c>
+      <c r="I20">
+        <v>3</v>
+      </c>
+      <c r="J20">
+        <v>2</v>
+      </c>
+      <c r="K20" s="4">
+        <v>3</v>
+      </c>
+      <c r="L20" s="3">
+        <f>IF(B20 = G20, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="3">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21" s="4">
+        <v>3</v>
+      </c>
+      <c r="G21">
+        <v>3</v>
+      </c>
+      <c r="H21">
+        <v>3</v>
+      </c>
+      <c r="I21">
+        <v>3</v>
+      </c>
+      <c r="J21">
+        <v>2</v>
+      </c>
+      <c r="K21" s="4">
+        <v>3</v>
+      </c>
+      <c r="L21" s="3">
+        <f>IF(B21 = G21, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="3">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22" s="4">
+        <v>3</v>
+      </c>
+      <c r="G22">
+        <v>3</v>
+      </c>
+      <c r="H22">
+        <v>3</v>
+      </c>
+      <c r="I22">
+        <v>3</v>
+      </c>
+      <c r="J22">
+        <v>2</v>
+      </c>
+      <c r="K22" s="4">
+        <v>3</v>
+      </c>
+      <c r="L22" s="3">
+        <f>IF(B22 = G22, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="3">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23" s="4">
+        <v>3</v>
+      </c>
+      <c r="G23">
+        <v>3</v>
+      </c>
+      <c r="H23">
+        <v>3</v>
+      </c>
+      <c r="I23">
+        <v>3</v>
+      </c>
+      <c r="J23">
+        <v>2</v>
+      </c>
+      <c r="K23" s="4">
+        <v>3</v>
+      </c>
+      <c r="L23" s="3">
+        <f>IF(B23 = G23, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:C17">
+  <conditionalFormatting sqref="C2:C24">
     <cfRule type="notContainsBlanks" dxfId="0" priority="2">
       <formula>LEN(TRIM(C2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D17">
+  <conditionalFormatting sqref="D2:D24">
     <cfRule type="notContainsBlanks" dxfId="0" priority="3">
       <formula>LEN(TRIM(D2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E17">
+  <conditionalFormatting sqref="E2:E24">
     <cfRule type="notContainsBlanks" dxfId="1" priority="4">
       <formula>LEN(TRIM(E2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F17">
+  <conditionalFormatting sqref="F2:F24">
     <cfRule type="notContainsBlanks" dxfId="1" priority="5">
       <formula>LEN(TRIM(F2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H17">
+  <conditionalFormatting sqref="H2:H24">
     <cfRule type="notContainsBlanks" dxfId="0" priority="6">
       <formula>LEN(TRIM(H2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I17">
+  <conditionalFormatting sqref="I2:I24">
     <cfRule type="notContainsBlanks" dxfId="0" priority="7">
       <formula>LEN(TRIM(I2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J17">
+  <conditionalFormatting sqref="J2:J24">
     <cfRule type="notContainsBlanks" dxfId="1" priority="8">
       <formula>LEN(TRIM(J2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K17">
+  <conditionalFormatting sqref="K2:K24">
     <cfRule type="notContainsBlanks" dxfId="1" priority="9">
       <formula>LEN(TRIM(K2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L2:L16">
+  <conditionalFormatting sqref="L2:L23">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -1176,7 +1449,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1268,13 +1541,13 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>3</v>
@@ -1305,13 +1578,13 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>3</v>
@@ -1339,7 +1612,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1348,7 +1621,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <v>3</v>
@@ -1360,7 +1633,7 @@
         <v>3</v>
       </c>
       <c r="I5" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J5" s="3">
         <f>IF(B5 = F5, 1, 0)</f>
@@ -1376,7 +1649,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -1385,7 +1658,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>3</v>
@@ -1397,7 +1670,7 @@
         <v>3</v>
       </c>
       <c r="I6" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J6" s="3">
         <f>IF(B6 = F6, 1, 0)</f>
@@ -1413,7 +1686,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -1422,7 +1695,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>3</v>
@@ -1434,7 +1707,7 @@
         <v>3</v>
       </c>
       <c r="I7" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J7" s="3">
         <f>IF(B7 = F7, 1, 0)</f>
@@ -1450,7 +1723,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -1471,7 +1744,7 @@
         <v>3</v>
       </c>
       <c r="I8" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J8" s="3">
         <f>IF(B8 = F8, 1, 0)</f>
@@ -1487,7 +1760,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -1508,7 +1781,7 @@
         <v>3</v>
       </c>
       <c r="I9" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J9" s="3">
         <f>IF(B9 = F9, 1, 0)</f>
@@ -1524,7 +1797,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -1545,7 +1818,7 @@
         <v>3</v>
       </c>
       <c r="I10" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J10" s="3">
         <f>IF(B10 = F10, 1, 0)</f>
@@ -1561,7 +1834,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -1582,7 +1855,7 @@
         <v>3</v>
       </c>
       <c r="I11" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J11" s="3">
         <f>IF(B11 = F11, 1, 0)</f>
@@ -1598,7 +1871,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -1619,7 +1892,7 @@
         <v>3</v>
       </c>
       <c r="I12" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J12" s="3">
         <f>IF(B12 = F12, 1, 0)</f>
@@ -1635,7 +1908,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -1656,7 +1929,7 @@
         <v>3</v>
       </c>
       <c r="I13" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J13" s="3">
         <f>IF(B13 = F13, 1, 0)</f>
@@ -1672,7 +1945,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -1693,7 +1966,7 @@
         <v>3</v>
       </c>
       <c r="I14" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J14" s="3">
         <f>IF(B14 = F14, 1, 0)</f>
@@ -1709,7 +1982,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -1730,7 +2003,7 @@
         <v>3</v>
       </c>
       <c r="I15" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J15" s="3">
         <f>IF(B15 = F15, 1, 0)</f>
@@ -1746,7 +2019,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -1767,7 +2040,7 @@
         <v>3</v>
       </c>
       <c r="I16" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J16" s="3">
         <f>IF(B16 = F16, 1, 0)</f>
@@ -1778,8 +2051,267 @@
         <v>0</v>
       </c>
     </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="3">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>3</v>
+      </c>
+      <c r="G17">
+        <v>3</v>
+      </c>
+      <c r="H17">
+        <v>3</v>
+      </c>
+      <c r="I17" s="4">
+        <v>3</v>
+      </c>
+      <c r="J17" s="3">
+        <f>IF(B17 = F17, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K17" s="3">
+        <f>MODE(C17:E17)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="3">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18" s="4">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>3</v>
+      </c>
+      <c r="G18">
+        <v>3</v>
+      </c>
+      <c r="H18">
+        <v>3</v>
+      </c>
+      <c r="I18" s="4">
+        <v>3</v>
+      </c>
+      <c r="J18" s="3">
+        <f>IF(B18 = F18, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
+        <f>MODE(C18:E18)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="3">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19" s="4">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>3</v>
+      </c>
+      <c r="G19">
+        <v>3</v>
+      </c>
+      <c r="H19">
+        <v>3</v>
+      </c>
+      <c r="I19" s="4">
+        <v>3</v>
+      </c>
+      <c r="J19" s="3">
+        <f>IF(B19 = F19, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K19" s="3">
+        <f>MODE(C19:E19)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="3">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20" s="4">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>3</v>
+      </c>
+      <c r="G20">
+        <v>3</v>
+      </c>
+      <c r="H20">
+        <v>3</v>
+      </c>
+      <c r="I20" s="4">
+        <v>3</v>
+      </c>
+      <c r="J20" s="3">
+        <f>IF(B20 = F20, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
+        <f>MODE(C20:E20)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="3">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21" s="4">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>3</v>
+      </c>
+      <c r="G21">
+        <v>3</v>
+      </c>
+      <c r="H21">
+        <v>3</v>
+      </c>
+      <c r="I21" s="4">
+        <v>3</v>
+      </c>
+      <c r="J21" s="3">
+        <f>IF(B21 = F21, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K21" s="3">
+        <f>MODE(C21:E21)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="3">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22" s="4">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>3</v>
+      </c>
+      <c r="G22">
+        <v>3</v>
+      </c>
+      <c r="H22">
+        <v>3</v>
+      </c>
+      <c r="I22" s="4">
+        <v>3</v>
+      </c>
+      <c r="J22" s="3">
+        <f>IF(B22 = F22, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
+        <f>MODE(C22:E22)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="3">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23" s="4">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>3</v>
+      </c>
+      <c r="G23">
+        <v>3</v>
+      </c>
+      <c r="H23">
+        <v>3</v>
+      </c>
+      <c r="I23" s="4">
+        <v>3</v>
+      </c>
+      <c r="J23" s="3">
+        <f>IF(B23 = F23, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
+        <f>MODE(C23:E23)</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="J2:J16">
+  <conditionalFormatting sqref="J2:J23">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -1789,7 +2321,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K16">
+  <conditionalFormatting sqref="K2:K23">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -1805,7 +2337,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1894,28 +2426,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" s="4">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I3" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J3" s="3">
         <f>IF(B3 = F3, 1, 0)</f>
@@ -1931,28 +2463,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I4" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J4" s="3">
         <f>IF(B4 = F4, 1, 0)</f>
@@ -1968,28 +2500,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I5" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J5" s="3">
         <f>IF(B5 = F5, 1, 0)</f>
@@ -2005,28 +2537,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="4">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I6" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J6" s="3">
         <f>IF(B6 = F6, 1, 0)</f>
@@ -2042,28 +2574,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" s="4">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I7" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J7" s="3">
         <f>IF(B7 = F7, 1, 0)</f>
@@ -2079,28 +2611,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" s="4">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I8" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J8" s="3">
         <f>IF(B8 = F8, 1, 0)</f>
@@ -2116,28 +2648,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" s="4">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I9" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J9" s="3">
         <f>IF(B9 = F9, 1, 0)</f>
@@ -2153,28 +2685,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" s="4">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I10" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J10" s="3">
         <f>IF(B10 = F10, 1, 0)</f>
@@ -2190,28 +2722,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" s="4">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I11" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J11" s="3">
         <f>IF(B11 = F11, 1, 0)</f>
@@ -2227,28 +2759,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" s="4">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I12" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J12" s="3">
         <f>IF(B12 = F12, 1, 0)</f>
@@ -2264,28 +2796,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" s="4">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I13" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J13" s="3">
         <f>IF(B13 = F13, 1, 0)</f>
@@ -2301,28 +2833,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" s="4">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I14" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J14" s="3">
         <f>IF(B14 = F14, 1, 0)</f>
@@ -2338,7 +2870,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -2350,16 +2882,16 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I15" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J15" s="3">
         <f>IF(B15 = F15, 1, 0)</f>
@@ -2387,16 +2919,16 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I16" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J16" s="3">
         <f>IF(B16 = F16, 1, 0)</f>
@@ -2407,8 +2939,267 @@
         <v>0</v>
       </c>
     </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="3">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>3</v>
+      </c>
+      <c r="G17">
+        <v>3</v>
+      </c>
+      <c r="H17">
+        <v>3</v>
+      </c>
+      <c r="I17" s="4">
+        <v>3</v>
+      </c>
+      <c r="J17" s="3">
+        <f>IF(B17 = F17, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K17" s="3">
+        <f>MODE(C17:E17)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="3">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18" s="4">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>3</v>
+      </c>
+      <c r="G18">
+        <v>3</v>
+      </c>
+      <c r="H18">
+        <v>3</v>
+      </c>
+      <c r="I18" s="4">
+        <v>3</v>
+      </c>
+      <c r="J18" s="3">
+        <f>IF(B18 = F18, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
+        <f>MODE(C18:E18)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="3">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19" s="4">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>3</v>
+      </c>
+      <c r="G19">
+        <v>3</v>
+      </c>
+      <c r="H19">
+        <v>3</v>
+      </c>
+      <c r="I19" s="4">
+        <v>3</v>
+      </c>
+      <c r="J19" s="3">
+        <f>IF(B19 = F19, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K19" s="3">
+        <f>MODE(C19:E19)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="3">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20" s="4">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>3</v>
+      </c>
+      <c r="G20">
+        <v>3</v>
+      </c>
+      <c r="H20">
+        <v>3</v>
+      </c>
+      <c r="I20" s="4">
+        <v>3</v>
+      </c>
+      <c r="J20" s="3">
+        <f>IF(B20 = F20, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
+        <f>MODE(C20:E20)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="3">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21" s="4">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>3</v>
+      </c>
+      <c r="G21">
+        <v>3</v>
+      </c>
+      <c r="H21">
+        <v>3</v>
+      </c>
+      <c r="I21" s="4">
+        <v>3</v>
+      </c>
+      <c r="J21" s="3">
+        <f>IF(B21 = F21, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K21" s="3">
+        <f>MODE(C21:E21)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="3">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22" s="4">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>3</v>
+      </c>
+      <c r="G22">
+        <v>3</v>
+      </c>
+      <c r="H22">
+        <v>3</v>
+      </c>
+      <c r="I22" s="4">
+        <v>3</v>
+      </c>
+      <c r="J22" s="3">
+        <f>IF(B22 = F22, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
+        <f>MODE(C22:E22)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="3">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23" s="4">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>3</v>
+      </c>
+      <c r="G23">
+        <v>3</v>
+      </c>
+      <c r="H23">
+        <v>3</v>
+      </c>
+      <c r="I23" s="4">
+        <v>3</v>
+      </c>
+      <c r="J23" s="3">
+        <f>IF(B23 = F23, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
+        <f>MODE(C23:E23)</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="J2:J16">
+  <conditionalFormatting sqref="J2:J23">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -2418,7 +3209,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K16">
+  <conditionalFormatting sqref="K2:K23">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -2434,7 +3225,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2523,7 +3314,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -2535,16 +3326,16 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I3" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J3" s="3">
         <f>IF(B3 = F3, 1, 0)</f>
@@ -2560,7 +3351,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -2572,16 +3363,16 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I4" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J4" s="3">
         <f>IF(B4 = F4, 1, 0)</f>
@@ -2597,28 +3388,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" s="4">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I5" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J5" s="3">
         <f>IF(B5 = F5, 1, 0)</f>
@@ -2634,28 +3425,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" s="4">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I6" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J6" s="3">
         <f>IF(B6 = F6, 1, 0)</f>
@@ -2671,28 +3462,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" s="4">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I7" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J7" s="3">
         <f>IF(B7 = F7, 1, 0)</f>
@@ -2708,28 +3499,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" s="4">
         <v>1</v>
       </c>
       <c r="F8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I8" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J8" s="3">
         <f>IF(B8 = F8, 1, 0)</f>
@@ -2745,28 +3536,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I9" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J9" s="3">
         <f>IF(B9 = F9, 1, 0)</f>
@@ -2782,28 +3573,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" s="4">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I10" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J10" s="3">
         <f>IF(B10 = F10, 1, 0)</f>
@@ -2819,28 +3610,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" s="4">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I11" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J11" s="3">
         <f>IF(B11 = F11, 1, 0)</f>
@@ -2856,28 +3647,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" s="4">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I12" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J12" s="3">
         <f>IF(B12 = F12, 1, 0)</f>
@@ -2893,28 +3684,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" s="4">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I13" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J13" s="3">
         <f>IF(B13 = F13, 1, 0)</f>
@@ -2930,28 +3721,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" s="4">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I14" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J14" s="3">
         <f>IF(B14 = F14, 1, 0)</f>
@@ -2967,7 +3758,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -2979,16 +3770,16 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I15" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J15" s="3">
         <f>IF(B15 = F15, 1, 0)</f>
@@ -3004,7 +3795,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -3016,16 +3807,16 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H16">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I16" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J16" s="3">
         <f>IF(B16 = F16, 1, 0)</f>
@@ -3036,8 +3827,267 @@
         <v>0</v>
       </c>
     </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="3">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17">
+        <v>2</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17" s="4">
+        <v>2</v>
+      </c>
+      <c r="J17" s="3">
+        <f>IF(B17 = F17, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K17" s="3">
+        <f>MODE(C17:E17)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="3">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18" s="4">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18">
+        <v>2</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18" s="4">
+        <v>2</v>
+      </c>
+      <c r="J18" s="3">
+        <f>IF(B18 = F18, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
+        <f>MODE(C18:E18)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="3">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19" s="4">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19">
+        <v>2</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19" s="4">
+        <v>2</v>
+      </c>
+      <c r="J19" s="3">
+        <f>IF(B19 = F19, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K19" s="3">
+        <f>MODE(C19:E19)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="3">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20" s="4">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+      <c r="G20">
+        <v>2</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20" s="4">
+        <v>2</v>
+      </c>
+      <c r="J20" s="3">
+        <f>IF(B20 = F20, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
+        <f>MODE(C20:E20)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="3">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21" s="4">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+      <c r="G21">
+        <v>2</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21" s="4">
+        <v>2</v>
+      </c>
+      <c r="J21" s="3">
+        <f>IF(B21 = F21, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K21" s="3">
+        <f>MODE(C21:E21)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="3">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22" s="4">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+      <c r="G22">
+        <v>2</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22" s="4">
+        <v>2</v>
+      </c>
+      <c r="J22" s="3">
+        <f>IF(B22 = F22, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
+        <f>MODE(C22:E22)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="3">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23" s="4">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+      <c r="G23">
+        <v>2</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23" s="4">
+        <v>2</v>
+      </c>
+      <c r="J23" s="3">
+        <f>IF(B23 = F23, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
+        <f>MODE(C23:E23)</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="J2:J16">
+  <conditionalFormatting sqref="J2:J23">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -3047,7 +4097,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K16">
+  <conditionalFormatting sqref="K2:K23">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -3063,7 +4113,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -3158,7 +4208,7 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" s="4">
         <v>1</v>
@@ -3195,10 +4245,10 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4">
         <v>3</v>
@@ -3232,10 +4282,10 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5">
         <v>3</v>
@@ -3269,10 +4319,10 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6">
         <v>3</v>
@@ -3306,10 +4356,10 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7">
         <v>3</v>
@@ -3343,10 +4393,10 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8">
         <v>3</v>
@@ -3380,10 +4430,10 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9">
         <v>3</v>
@@ -3417,7 +4467,7 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" s="4">
         <v>0</v>
@@ -3454,7 +4504,7 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" s="4">
         <v>0</v>
@@ -3491,7 +4541,7 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" s="4">
         <v>0</v>
@@ -3665,8 +4715,267 @@
         <v>0</v>
       </c>
     </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="3">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>3</v>
+      </c>
+      <c r="G17">
+        <v>3</v>
+      </c>
+      <c r="H17">
+        <v>3</v>
+      </c>
+      <c r="I17" s="4">
+        <v>3</v>
+      </c>
+      <c r="J17" s="3">
+        <f>IF(B17 = F17, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K17" s="3">
+        <f>MODE(C17:E17)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="3">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18" s="4">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>3</v>
+      </c>
+      <c r="G18">
+        <v>3</v>
+      </c>
+      <c r="H18">
+        <v>3</v>
+      </c>
+      <c r="I18" s="4">
+        <v>3</v>
+      </c>
+      <c r="J18" s="3">
+        <f>IF(B18 = F18, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
+        <f>MODE(C18:E18)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="3">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19" s="4">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>3</v>
+      </c>
+      <c r="G19">
+        <v>3</v>
+      </c>
+      <c r="H19">
+        <v>3</v>
+      </c>
+      <c r="I19" s="4">
+        <v>3</v>
+      </c>
+      <c r="J19" s="3">
+        <f>IF(B19 = F19, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K19" s="3">
+        <f>MODE(C19:E19)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="3">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20" s="4">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>3</v>
+      </c>
+      <c r="G20">
+        <v>3</v>
+      </c>
+      <c r="H20">
+        <v>3</v>
+      </c>
+      <c r="I20" s="4">
+        <v>3</v>
+      </c>
+      <c r="J20" s="3">
+        <f>IF(B20 = F20, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
+        <f>MODE(C20:E20)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="3">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21" s="4">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>3</v>
+      </c>
+      <c r="G21">
+        <v>3</v>
+      </c>
+      <c r="H21">
+        <v>3</v>
+      </c>
+      <c r="I21" s="4">
+        <v>3</v>
+      </c>
+      <c r="J21" s="3">
+        <f>IF(B21 = F21, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K21" s="3">
+        <f>MODE(C21:E21)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="3">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22" s="4">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>3</v>
+      </c>
+      <c r="G22">
+        <v>3</v>
+      </c>
+      <c r="H22">
+        <v>3</v>
+      </c>
+      <c r="I22" s="4">
+        <v>3</v>
+      </c>
+      <c r="J22" s="3">
+        <f>IF(B22 = F22, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
+        <f>MODE(C22:E22)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="3">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23" s="4">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>3</v>
+      </c>
+      <c r="G23">
+        <v>3</v>
+      </c>
+      <c r="H23">
+        <v>3</v>
+      </c>
+      <c r="I23" s="4">
+        <v>3</v>
+      </c>
+      <c r="J23" s="3">
+        <f>IF(B23 = F23, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
+        <f>MODE(C23:E23)</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="J2:J16">
+  <conditionalFormatting sqref="J2:J23">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -3676,7 +4985,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K16">
+  <conditionalFormatting sqref="K2:K23">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min" val="0"/>

--- a/shipClassTests/testResults/parallel_sys_test.xlsx
+++ b/shipClassTests/testResults/parallel_sys_test.xlsx
@@ -484,7 +484,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L23"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -587,7 +587,7 @@
         <v>3</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3" s="4">
         <v>3</v>
@@ -602,7 +602,7 @@
         <v>3</v>
       </c>
       <c r="J3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K3" s="4">
         <v>3</v>
@@ -626,7 +626,7 @@
         <v>3</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4" s="4">
         <v>3</v>
@@ -641,7 +641,7 @@
         <v>3</v>
       </c>
       <c r="J4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K4" s="4">
         <v>3</v>
@@ -665,7 +665,7 @@
         <v>3</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5" s="4">
         <v>3</v>
@@ -680,7 +680,7 @@
         <v>3</v>
       </c>
       <c r="J5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K5" s="4">
         <v>3</v>
@@ -719,7 +719,7 @@
         <v>3</v>
       </c>
       <c r="J6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K6" s="4">
         <v>3</v>
@@ -737,13 +737,13 @@
         <v>3</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7">
         <v>3</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F7" s="4">
         <v>3</v>
@@ -752,13 +752,13 @@
         <v>3</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I7">
         <v>3</v>
       </c>
       <c r="J7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K7" s="4">
         <v>3</v>
@@ -776,13 +776,13 @@
         <v>3</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8">
         <v>3</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F8" s="4">
         <v>3</v>
@@ -791,13 +791,13 @@
         <v>3</v>
       </c>
       <c r="H8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I8">
         <v>3</v>
       </c>
       <c r="J8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K8" s="4">
         <v>3</v>
@@ -815,7 +815,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D9">
         <v>3</v>
@@ -830,13 +830,13 @@
         <v>3</v>
       </c>
       <c r="H9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I9">
         <v>3</v>
       </c>
       <c r="J9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K9" s="4">
         <v>3</v>
@@ -854,7 +854,7 @@
         <v>3</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D10">
         <v>3</v>
@@ -869,13 +869,13 @@
         <v>3</v>
       </c>
       <c r="H10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I10">
         <v>3</v>
       </c>
       <c r="J10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K10" s="4">
         <v>3</v>
@@ -893,10 +893,10 @@
         <v>3</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -908,13 +908,13 @@
         <v>3</v>
       </c>
       <c r="H11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I11">
         <v>3</v>
       </c>
       <c r="J11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K11" s="4">
         <v>3</v>
@@ -929,13 +929,13 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -947,13 +947,13 @@
         <v>3</v>
       </c>
       <c r="H12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I12">
         <v>3</v>
       </c>
       <c r="J12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K12" s="4">
         <v>3</v>
@@ -968,13 +968,13 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -986,13 +986,13 @@
         <v>3</v>
       </c>
       <c r="H13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I13">
         <v>3</v>
       </c>
       <c r="J13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K13" s="4">
         <v>3</v>
@@ -1007,13 +1007,13 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1025,13 +1025,13 @@
         <v>3</v>
       </c>
       <c r="H14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I14">
         <v>3</v>
       </c>
       <c r="J14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K14" s="4">
         <v>3</v>
@@ -1049,10 +1049,10 @@
         <v>1</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1064,13 +1064,13 @@
         <v>3</v>
       </c>
       <c r="H15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I15">
         <v>3</v>
       </c>
       <c r="J15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K15" s="4">
         <v>3</v>
@@ -1085,10 +1085,10 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -1103,13 +1103,13 @@
         <v>3</v>
       </c>
       <c r="H16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I16">
         <v>3</v>
       </c>
       <c r="J16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K16" s="4">
         <v>3</v>
@@ -1119,321 +1119,48 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="3">
-        <v>15</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17" s="4">
-        <v>3</v>
-      </c>
-      <c r="G17">
-        <v>3</v>
-      </c>
-      <c r="H17">
-        <v>3</v>
-      </c>
-      <c r="I17">
-        <v>3</v>
-      </c>
-      <c r="J17">
-        <v>2</v>
-      </c>
-      <c r="K17" s="4">
-        <v>3</v>
-      </c>
-      <c r="L17" s="3">
-        <f>IF(B17 = G17, 1, 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="3">
-        <v>16</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18" s="4">
-        <v>3</v>
-      </c>
-      <c r="G18">
-        <v>3</v>
-      </c>
-      <c r="H18">
-        <v>3</v>
-      </c>
-      <c r="I18">
-        <v>3</v>
-      </c>
-      <c r="J18">
-        <v>2</v>
-      </c>
-      <c r="K18" s="4">
-        <v>3</v>
-      </c>
-      <c r="L18" s="3">
-        <f>IF(B18 = G18, 1, 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="3">
-        <v>17</v>
-      </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19" s="4">
-        <v>3</v>
-      </c>
-      <c r="G19">
-        <v>3</v>
-      </c>
-      <c r="H19">
-        <v>3</v>
-      </c>
-      <c r="I19">
-        <v>3</v>
-      </c>
-      <c r="J19">
-        <v>2</v>
-      </c>
-      <c r="K19" s="4">
-        <v>3</v>
-      </c>
-      <c r="L19" s="3">
-        <f>IF(B19 = G19, 1, 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="3">
-        <v>18</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20" s="4">
-        <v>3</v>
-      </c>
-      <c r="G20">
-        <v>3</v>
-      </c>
-      <c r="H20">
-        <v>3</v>
-      </c>
-      <c r="I20">
-        <v>3</v>
-      </c>
-      <c r="J20">
-        <v>2</v>
-      </c>
-      <c r="K20" s="4">
-        <v>3</v>
-      </c>
-      <c r="L20" s="3">
-        <f>IF(B20 = G20, 1, 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="3">
-        <v>19</v>
-      </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21" s="4">
-        <v>3</v>
-      </c>
-      <c r="G21">
-        <v>3</v>
-      </c>
-      <c r="H21">
-        <v>3</v>
-      </c>
-      <c r="I21">
-        <v>3</v>
-      </c>
-      <c r="J21">
-        <v>2</v>
-      </c>
-      <c r="K21" s="4">
-        <v>3</v>
-      </c>
-      <c r="L21" s="3">
-        <f>IF(B21 = G21, 1, 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="3">
-        <v>20</v>
-      </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22" s="4">
-        <v>3</v>
-      </c>
-      <c r="G22">
-        <v>3</v>
-      </c>
-      <c r="H22">
-        <v>3</v>
-      </c>
-      <c r="I22">
-        <v>3</v>
-      </c>
-      <c r="J22">
-        <v>2</v>
-      </c>
-      <c r="K22" s="4">
-        <v>3</v>
-      </c>
-      <c r="L22" s="3">
-        <f>IF(B22 = G22, 1, 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="3">
-        <v>21</v>
-      </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23" s="4">
-        <v>3</v>
-      </c>
-      <c r="G23">
-        <v>3</v>
-      </c>
-      <c r="H23">
-        <v>3</v>
-      </c>
-      <c r="I23">
-        <v>3</v>
-      </c>
-      <c r="J23">
-        <v>2</v>
-      </c>
-      <c r="K23" s="4">
-        <v>3</v>
-      </c>
-      <c r="L23" s="3">
-        <f>IF(B23 = G23, 1, 0)</f>
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:C24">
+  <conditionalFormatting sqref="C2:C17">
     <cfRule type="notContainsBlanks" dxfId="0" priority="2">
       <formula>LEN(TRIM(C2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D24">
+  <conditionalFormatting sqref="D2:D17">
     <cfRule type="notContainsBlanks" dxfId="0" priority="3">
       <formula>LEN(TRIM(D2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E24">
+  <conditionalFormatting sqref="E2:E17">
     <cfRule type="notContainsBlanks" dxfId="1" priority="4">
       <formula>LEN(TRIM(E2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F24">
+  <conditionalFormatting sqref="F2:F17">
     <cfRule type="notContainsBlanks" dxfId="1" priority="5">
       <formula>LEN(TRIM(F2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H24">
+  <conditionalFormatting sqref="H2:H17">
     <cfRule type="notContainsBlanks" dxfId="0" priority="6">
       <formula>LEN(TRIM(H2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I24">
+  <conditionalFormatting sqref="I2:I17">
     <cfRule type="notContainsBlanks" dxfId="0" priority="7">
       <formula>LEN(TRIM(I2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J24">
+  <conditionalFormatting sqref="J2:J17">
     <cfRule type="notContainsBlanks" dxfId="1" priority="8">
       <formula>LEN(TRIM(J2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K24">
+  <conditionalFormatting sqref="K2:K17">
     <cfRule type="notContainsBlanks" dxfId="1" priority="9">
       <formula>LEN(TRIM(K2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L2:L23">
+  <conditionalFormatting sqref="L2:L16">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -1449,7 +1176,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1541,13 +1268,13 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3">
         <v>3</v>
@@ -1578,13 +1305,13 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4">
         <v>3</v>
@@ -1615,13 +1342,13 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5">
         <v>3</v>
@@ -1652,13 +1379,13 @@
         <v>3</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6">
         <v>3</v>
@@ -1686,28 +1413,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I7" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J7" s="3">
         <f>IF(B7 = F7, 1, 0)</f>
@@ -1723,28 +1450,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I8" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J8" s="3">
         <f>IF(B8 = F8, 1, 0)</f>
@@ -1760,28 +1487,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I9" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J9" s="3">
         <f>IF(B9 = F9, 1, 0)</f>
@@ -1797,10 +1524,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1809,16 +1536,16 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I10" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J10" s="3">
         <f>IF(B10 = F10, 1, 0)</f>
@@ -1834,7 +1561,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -1846,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I11" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J11" s="3">
         <f>IF(B11 = F11, 1, 0)</f>
@@ -1871,7 +1598,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -1883,16 +1610,16 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I12" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J12" s="3">
         <f>IF(B12 = F12, 1, 0)</f>
@@ -1908,7 +1635,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -1920,16 +1647,16 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I13" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J13" s="3">
         <f>IF(B13 = F13, 1, 0)</f>
@@ -1945,7 +1672,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -1957,16 +1684,16 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I14" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J14" s="3">
         <f>IF(B14 = F14, 1, 0)</f>
@@ -1982,7 +1709,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -1994,16 +1721,16 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I15" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J15" s="3">
         <f>IF(B15 = F15, 1, 0)</f>
@@ -2019,7 +1746,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -2031,16 +1758,16 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I16" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J16" s="3">
         <f>IF(B16 = F16, 1, 0)</f>
@@ -2051,267 +1778,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="3">
-        <v>15</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17" s="4">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>3</v>
-      </c>
-      <c r="G17">
-        <v>3</v>
-      </c>
-      <c r="H17">
-        <v>3</v>
-      </c>
-      <c r="I17" s="4">
-        <v>3</v>
-      </c>
-      <c r="J17" s="3">
-        <f>IF(B17 = F17, 1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="K17" s="3">
-        <f>MODE(C17:E17)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="3">
-        <v>16</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18" s="4">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>3</v>
-      </c>
-      <c r="G18">
-        <v>3</v>
-      </c>
-      <c r="H18">
-        <v>3</v>
-      </c>
-      <c r="I18" s="4">
-        <v>3</v>
-      </c>
-      <c r="J18" s="3">
-        <f>IF(B18 = F18, 1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="K18" s="3">
-        <f>MODE(C18:E18)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="3">
-        <v>17</v>
-      </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19" s="4">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>3</v>
-      </c>
-      <c r="G19">
-        <v>3</v>
-      </c>
-      <c r="H19">
-        <v>3</v>
-      </c>
-      <c r="I19" s="4">
-        <v>3</v>
-      </c>
-      <c r="J19" s="3">
-        <f>IF(B19 = F19, 1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="K19" s="3">
-        <f>MODE(C19:E19)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="3">
-        <v>18</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20" s="4">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>3</v>
-      </c>
-      <c r="G20">
-        <v>3</v>
-      </c>
-      <c r="H20">
-        <v>3</v>
-      </c>
-      <c r="I20" s="4">
-        <v>3</v>
-      </c>
-      <c r="J20" s="3">
-        <f>IF(B20 = F20, 1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="K20" s="3">
-        <f>MODE(C20:E20)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="3">
-        <v>19</v>
-      </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21" s="4">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>3</v>
-      </c>
-      <c r="G21">
-        <v>3</v>
-      </c>
-      <c r="H21">
-        <v>3</v>
-      </c>
-      <c r="I21" s="4">
-        <v>3</v>
-      </c>
-      <c r="J21" s="3">
-        <f>IF(B21 = F21, 1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="K21" s="3">
-        <f>MODE(C21:E21)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22" s="3">
-        <v>20</v>
-      </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22" s="4">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>3</v>
-      </c>
-      <c r="G22">
-        <v>3</v>
-      </c>
-      <c r="H22">
-        <v>3</v>
-      </c>
-      <c r="I22" s="4">
-        <v>3</v>
-      </c>
-      <c r="J22" s="3">
-        <f>IF(B22 = F22, 1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="K22" s="3">
-        <f>MODE(C22:E22)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="A23" s="3">
-        <v>21</v>
-      </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23" s="4">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>3</v>
-      </c>
-      <c r="G23">
-        <v>3</v>
-      </c>
-      <c r="H23">
-        <v>3</v>
-      </c>
-      <c r="I23" s="4">
-        <v>3</v>
-      </c>
-      <c r="J23" s="3">
-        <f>IF(B23 = F23, 1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="K23" s="3">
-        <f>MODE(C23:E23)</f>
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="J2:J23">
+  <conditionalFormatting sqref="J2:J16">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -2321,7 +1789,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K23">
+  <conditionalFormatting sqref="K2:K16">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -2337,7 +1805,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2432,7 +1900,7 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" s="4">
         <v>1</v>
@@ -2466,10 +1934,10 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" s="4">
         <v>1</v>
@@ -2546,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6">
         <v>3</v>
@@ -2583,7 +2051,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7">
         <v>3</v>
@@ -2722,7 +2190,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -2759,7 +2227,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -2796,7 +2264,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -2833,7 +2301,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -2870,7 +2338,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -2939,267 +2407,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="3">
-        <v>15</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17" s="4">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>3</v>
-      </c>
-      <c r="G17">
-        <v>3</v>
-      </c>
-      <c r="H17">
-        <v>3</v>
-      </c>
-      <c r="I17" s="4">
-        <v>3</v>
-      </c>
-      <c r="J17" s="3">
-        <f>IF(B17 = F17, 1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="K17" s="3">
-        <f>MODE(C17:E17)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="3">
-        <v>16</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18" s="4">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>3</v>
-      </c>
-      <c r="G18">
-        <v>3</v>
-      </c>
-      <c r="H18">
-        <v>3</v>
-      </c>
-      <c r="I18" s="4">
-        <v>3</v>
-      </c>
-      <c r="J18" s="3">
-        <f>IF(B18 = F18, 1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="K18" s="3">
-        <f>MODE(C18:E18)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="3">
-        <v>17</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19" s="4">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>3</v>
-      </c>
-      <c r="G19">
-        <v>3</v>
-      </c>
-      <c r="H19">
-        <v>3</v>
-      </c>
-      <c r="I19" s="4">
-        <v>3</v>
-      </c>
-      <c r="J19" s="3">
-        <f>IF(B19 = F19, 1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="K19" s="3">
-        <f>MODE(C19:E19)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="3">
-        <v>18</v>
-      </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20" s="4">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>3</v>
-      </c>
-      <c r="G20">
-        <v>3</v>
-      </c>
-      <c r="H20">
-        <v>3</v>
-      </c>
-      <c r="I20" s="4">
-        <v>3</v>
-      </c>
-      <c r="J20" s="3">
-        <f>IF(B20 = F20, 1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="K20" s="3">
-        <f>MODE(C20:E20)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="3">
-        <v>19</v>
-      </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21" s="4">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>3</v>
-      </c>
-      <c r="G21">
-        <v>3</v>
-      </c>
-      <c r="H21">
-        <v>3</v>
-      </c>
-      <c r="I21" s="4">
-        <v>3</v>
-      </c>
-      <c r="J21" s="3">
-        <f>IF(B21 = F21, 1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="K21" s="3">
-        <f>MODE(C21:E21)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22" s="3">
-        <v>20</v>
-      </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22" s="4">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>3</v>
-      </c>
-      <c r="G22">
-        <v>3</v>
-      </c>
-      <c r="H22">
-        <v>3</v>
-      </c>
-      <c r="I22" s="4">
-        <v>3</v>
-      </c>
-      <c r="J22" s="3">
-        <f>IF(B22 = F22, 1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="K22" s="3">
-        <f>MODE(C22:E22)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="A23" s="3">
-        <v>21</v>
-      </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23" s="4">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>3</v>
-      </c>
-      <c r="G23">
-        <v>3</v>
-      </c>
-      <c r="H23">
-        <v>3</v>
-      </c>
-      <c r="I23" s="4">
-        <v>3</v>
-      </c>
-      <c r="J23" s="3">
-        <f>IF(B23 = F23, 1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="K23" s="3">
-        <f>MODE(C23:E23)</f>
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="J2:J23">
+  <conditionalFormatting sqref="J2:J16">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -3209,7 +2418,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K23">
+  <conditionalFormatting sqref="K2:K16">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -3225,7 +2434,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -3314,28 +2523,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" s="4">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I3" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J3" s="3">
         <f>IF(B3 = F3, 1, 0)</f>
@@ -3351,28 +2560,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I4" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J4" s="3">
         <f>IF(B4 = F4, 1, 0)</f>
@@ -3388,28 +2597,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I5" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J5" s="3">
         <f>IF(B5 = F5, 1, 0)</f>
@@ -3431,22 +2640,22 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I6" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J6" s="3">
         <f>IF(B6 = F6, 1, 0)</f>
@@ -3462,28 +2671,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I7" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J7" s="3">
         <f>IF(B7 = F7, 1, 0)</f>
@@ -3499,28 +2708,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I8" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J8" s="3">
         <f>IF(B8 = F8, 1, 0)</f>
@@ -3542,22 +2751,22 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" s="4">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I9" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J9" s="3">
         <f>IF(B9 = F9, 1, 0)</f>
@@ -3579,22 +2788,22 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" s="4">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I10" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J10" s="3">
         <f>IF(B10 = F10, 1, 0)</f>
@@ -3616,22 +2825,22 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" s="4">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I11" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J11" s="3">
         <f>IF(B11 = F11, 1, 0)</f>
@@ -3653,22 +2862,22 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" s="4">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I12" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J12" s="3">
         <f>IF(B12 = F12, 1, 0)</f>
@@ -3690,22 +2899,22 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" s="4">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I13" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J13" s="3">
         <f>IF(B13 = F13, 1, 0)</f>
@@ -3727,22 +2936,22 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" s="4">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I14" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J14" s="3">
         <f>IF(B14 = F14, 1, 0)</f>
@@ -3770,16 +2979,16 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I15" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J15" s="3">
         <f>IF(B15 = F15, 1, 0)</f>
@@ -3807,16 +3016,16 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I16" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J16" s="3">
         <f>IF(B16 = F16, 1, 0)</f>
@@ -3827,267 +3036,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="3">
-        <v>15</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17" s="4">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>2</v>
-      </c>
-      <c r="G17">
-        <v>2</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17" s="4">
-        <v>2</v>
-      </c>
-      <c r="J17" s="3">
-        <f>IF(B17 = F17, 1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="K17" s="3">
-        <f>MODE(C17:E17)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="3">
-        <v>16</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18" s="4">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>2</v>
-      </c>
-      <c r="G18">
-        <v>2</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18" s="4">
-        <v>2</v>
-      </c>
-      <c r="J18" s="3">
-        <f>IF(B18 = F18, 1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="K18" s="3">
-        <f>MODE(C18:E18)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="3">
-        <v>17</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19" s="4">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>2</v>
-      </c>
-      <c r="G19">
-        <v>2</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19" s="4">
-        <v>2</v>
-      </c>
-      <c r="J19" s="3">
-        <f>IF(B19 = F19, 1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="K19" s="3">
-        <f>MODE(C19:E19)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="3">
-        <v>18</v>
-      </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20" s="4">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>2</v>
-      </c>
-      <c r="G20">
-        <v>2</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20" s="4">
-        <v>2</v>
-      </c>
-      <c r="J20" s="3">
-        <f>IF(B20 = F20, 1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="K20" s="3">
-        <f>MODE(C20:E20)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="3">
-        <v>19</v>
-      </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21" s="4">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>2</v>
-      </c>
-      <c r="G21">
-        <v>2</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21" s="4">
-        <v>2</v>
-      </c>
-      <c r="J21" s="3">
-        <f>IF(B21 = F21, 1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="K21" s="3">
-        <f>MODE(C21:E21)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22" s="3">
-        <v>20</v>
-      </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22" s="4">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>2</v>
-      </c>
-      <c r="G22">
-        <v>2</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22" s="4">
-        <v>2</v>
-      </c>
-      <c r="J22" s="3">
-        <f>IF(B22 = F22, 1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="K22" s="3">
-        <f>MODE(C22:E22)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="A23" s="3">
-        <v>21</v>
-      </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23" s="4">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>2</v>
-      </c>
-      <c r="G23">
-        <v>2</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23" s="4">
-        <v>2</v>
-      </c>
-      <c r="J23" s="3">
-        <f>IF(B23 = F23, 1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="K23" s="3">
-        <f>MODE(C23:E23)</f>
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="J2:J23">
+  <conditionalFormatting sqref="J2:J16">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -4097,7 +3047,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K23">
+  <conditionalFormatting sqref="K2:K16">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -4113,7 +3063,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -4205,13 +3155,13 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>3</v>
@@ -4242,13 +3192,13 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>3</v>
@@ -4279,13 +3229,13 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <v>3</v>
@@ -4319,10 +3269,10 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>3</v>
@@ -4356,10 +3306,10 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>3</v>
@@ -4393,10 +3343,10 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <v>3</v>
@@ -4433,7 +3383,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9">
         <v>3</v>
@@ -4715,267 +3665,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="3">
-        <v>15</v>
-      </c>
-      <c r="B17">
-        <v>3</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17" s="4">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>3</v>
-      </c>
-      <c r="G17">
-        <v>3</v>
-      </c>
-      <c r="H17">
-        <v>3</v>
-      </c>
-      <c r="I17" s="4">
-        <v>3</v>
-      </c>
-      <c r="J17" s="3">
-        <f>IF(B17 = F17, 1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="K17" s="3">
-        <f>MODE(C17:E17)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="3">
-        <v>16</v>
-      </c>
-      <c r="B18">
-        <v>3</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18" s="4">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>3</v>
-      </c>
-      <c r="G18">
-        <v>3</v>
-      </c>
-      <c r="H18">
-        <v>3</v>
-      </c>
-      <c r="I18" s="4">
-        <v>3</v>
-      </c>
-      <c r="J18" s="3">
-        <f>IF(B18 = F18, 1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="K18" s="3">
-        <f>MODE(C18:E18)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="3">
-        <v>17</v>
-      </c>
-      <c r="B19">
-        <v>3</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19" s="4">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>3</v>
-      </c>
-      <c r="G19">
-        <v>3</v>
-      </c>
-      <c r="H19">
-        <v>3</v>
-      </c>
-      <c r="I19" s="4">
-        <v>3</v>
-      </c>
-      <c r="J19" s="3">
-        <f>IF(B19 = F19, 1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="K19" s="3">
-        <f>MODE(C19:E19)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="3">
-        <v>18</v>
-      </c>
-      <c r="B20">
-        <v>3</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20" s="4">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>3</v>
-      </c>
-      <c r="G20">
-        <v>3</v>
-      </c>
-      <c r="H20">
-        <v>3</v>
-      </c>
-      <c r="I20" s="4">
-        <v>3</v>
-      </c>
-      <c r="J20" s="3">
-        <f>IF(B20 = F20, 1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="K20" s="3">
-        <f>MODE(C20:E20)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="3">
-        <v>19</v>
-      </c>
-      <c r="B21">
-        <v>3</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21" s="4">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>3</v>
-      </c>
-      <c r="G21">
-        <v>3</v>
-      </c>
-      <c r="H21">
-        <v>3</v>
-      </c>
-      <c r="I21" s="4">
-        <v>3</v>
-      </c>
-      <c r="J21" s="3">
-        <f>IF(B21 = F21, 1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="K21" s="3">
-        <f>MODE(C21:E21)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22" s="3">
-        <v>20</v>
-      </c>
-      <c r="B22">
-        <v>3</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22" s="4">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>3</v>
-      </c>
-      <c r="G22">
-        <v>3</v>
-      </c>
-      <c r="H22">
-        <v>3</v>
-      </c>
-      <c r="I22" s="4">
-        <v>3</v>
-      </c>
-      <c r="J22" s="3">
-        <f>IF(B22 = F22, 1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="K22" s="3">
-        <f>MODE(C22:E22)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="A23" s="3">
-        <v>21</v>
-      </c>
-      <c r="B23">
-        <v>3</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23" s="4">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>3</v>
-      </c>
-      <c r="G23">
-        <v>3</v>
-      </c>
-      <c r="H23">
-        <v>3</v>
-      </c>
-      <c r="I23" s="4">
-        <v>3</v>
-      </c>
-      <c r="J23" s="3">
-        <f>IF(B23 = F23, 1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="K23" s="3">
-        <f>MODE(C23:E23)</f>
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="J2:J23">
+  <conditionalFormatting sqref="J2:J16">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -4985,7 +3676,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K23">
+  <conditionalFormatting sqref="K2:K16">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min" val="0"/>
